--- a/DSA/DataStructureChitSheet.xlsx
+++ b/DSA/DataStructureChitSheet.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinan\source\Skills\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A9E35-D2A6-4B2E-A529-95B8A153FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB173980-E345-4BE9-84BC-42557F92B505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0CE0D493-FE65-4A50-B951-6C1FCDBD178F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{0CE0D493-FE65-4A50-B951-6C1FCDBD178F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CheetSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Problems" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Problems!$A$2:$AB$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="189">
   <si>
     <t>DS</t>
   </si>
@@ -48,9 +52,6 @@
     <t>HashSet</t>
   </si>
   <si>
-    <t>Initialize</t>
-  </si>
-  <si>
     <t>Queue&lt;int&gt; queue = new Queue&lt;int&gt;();</t>
   </si>
   <si>
@@ -60,9 +61,6 @@
     <t>HashSet&lt;int&gt; hashSet = new HashSet&lt;int&gt;();</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>queue.Count</t>
   </si>
   <si>
@@ -72,9 +70,6 @@
     <t>hashSet.Count</t>
   </si>
   <si>
-    <t>Add element</t>
-  </si>
-  <si>
     <t>queue.Enqueue(5);</t>
   </si>
   <si>
@@ -84,9 +79,6 @@
     <t>hashSet.Add(3)</t>
   </si>
   <si>
-    <t>Remove element</t>
-  </si>
-  <si>
     <t>queue.Dequeue();</t>
   </si>
   <si>
@@ -96,9 +88,6 @@
     <t>hashSet.Remove(2);</t>
   </si>
   <si>
-    <t>Get 1st element</t>
-  </si>
-  <si>
     <t>queue.Peek();</t>
   </si>
   <si>
@@ -108,9 +97,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Remove all elements</t>
-  </si>
-  <si>
     <t>queue.Clear();</t>
   </si>
   <si>
@@ -120,9 +106,6 @@
     <t>hashSet.Clear();</t>
   </si>
   <si>
-    <t>Check element exists</t>
-  </si>
-  <si>
     <t>queue.Contains(5);</t>
   </si>
   <si>
@@ -132,9 +115,6 @@
     <t>hashSet.Contains(2)</t>
   </si>
   <si>
-    <t>Copy elements to array</t>
-  </si>
-  <si>
     <t>queue.CopyTo(array, arrayIndex);</t>
   </si>
   <si>
@@ -144,9 +124,6 @@
     <t>hashSet.CopyTo(array, arrayIndex);</t>
   </si>
   <si>
-    <t>Check if equal</t>
-  </si>
-  <si>
     <t>queue.Equals(queue2);</t>
   </si>
   <si>
@@ -156,18 +133,12 @@
     <t>hashSet.Equals(hashSet2);</t>
   </si>
   <si>
-    <t>Convert to array</t>
-  </si>
-  <si>
     <t>queue.ToArray();</t>
   </si>
   <si>
     <t>stack.ToArray();</t>
   </si>
   <si>
-    <t>Iterate elements</t>
-  </si>
-  <si>
     <t>foreach (int q in queue)</t>
   </si>
   <si>
@@ -207,32 +178,7 @@
     <t>Array</t>
   </si>
   <si>
-    <t>int[] arr = new int[5]; || int[] arr = {1,2,3}</t>
-  </si>
-  <si>
-    <t>arr.Length</t>
-  </si>
-  <si>
-    <t>arr[0]</t>
-  </si>
-  <si>
-    <t>arr.CopyTo(arr2, arrIndex);</t>
-  </si>
-  <si>
-    <t>arr.Equals(arr2);</t>
-  </si>
-  <si>
-    <t>for (int i = 0; i &lt; arr.Length; ++i) arr[i]
-foreach (int item in arr)</t>
-  </si>
-  <si>
     <t>ArrayList</t>
-  </si>
-  <si>
-    <t>Modify element</t>
-  </si>
-  <si>
-    <t>arr[index] = 10;</t>
   </si>
   <si>
     <t>dictionary[key] = value;</t>
@@ -254,10 +200,7 @@
     <t>arrayList[index] = 10;</t>
   </si>
   <si>
-    <t>Sort</t>
-  </si>
-  <si>
-    <t>Array.Sort(arr)</t>
+    <t>Array.Sort(array)</t>
   </si>
   <si>
     <t>arrayList.Sort();</t>
@@ -267,9 +210,6 @@
   </si>
   <si>
     <t>arrayList.Remove(5); || arrayList.RemoveAt(index);</t>
-  </si>
-  <si>
-    <t>Index of element</t>
   </si>
   <si>
     <t>arrayList.IndexOf(5);</t>
@@ -309,13 +249,374 @@
   <si>
     <t>for (int i = 0; i &lt; matrix.Length; i++)
             for (int j = 0; i &lt; matrix[0].Length; j++)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>1. Initialize</t>
+  </si>
+  <si>
+    <t>2. Size</t>
+  </si>
+  <si>
+    <t>3. Access element</t>
+  </si>
+  <si>
+    <t>4. Add element</t>
+  </si>
+  <si>
+    <t>5. Modify element</t>
+  </si>
+  <si>
+    <t>6. Remove element</t>
+  </si>
+  <si>
+    <t>7. Remove all elements</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>8. Check if element exists</t>
+  </si>
+  <si>
+    <t>11. Convert to array</t>
+  </si>
+  <si>
+    <t>9. Index of element</t>
+  </si>
+  <si>
+    <t>14. Sort</t>
+  </si>
+  <si>
+    <t>10. Iterate elements</t>
+  </si>
+  <si>
+    <t>12. Copy elements to array</t>
+  </si>
+  <si>
+    <t>13. Check if equal</t>
+  </si>
+  <si>
+    <t>int[] array = new int[5]; || int[] array = {1,2,3}</t>
+  </si>
+  <si>
+    <t>array.Length</t>
+  </si>
+  <si>
+    <t>array[0]</t>
+  </si>
+  <si>
+    <t>array[index] = 10;</t>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; array.Length; i++) array[i]
+foreach (int item in array)</t>
+  </si>
+  <si>
+    <t>array.CopyTo(array2, arrIndex);</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>5. Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>6. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>7. First Missing Positive</t>
+  </si>
+  <si>
+    <t>12. Word Search</t>
+  </si>
+  <si>
+    <t>18. Sort List</t>
+  </si>
+  <si>
+    <t>21. Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>22. String Compression</t>
+  </si>
+  <si>
+    <t>23. Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>24. Inorder Successor in BST II</t>
+  </si>
+  <si>
+    <t>25. Remove Comments</t>
+  </si>
+  <si>
+    <t>26. Serialize and Deserialize N-ary Tree</t>
+  </si>
+  <si>
+    <t>27. All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>28. Maximum Length of a Concatenated String with Unique Characters</t>
+  </si>
+  <si>
+    <t>IGotAnOffer</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>15. Wildcard Matching</t>
+  </si>
+  <si>
+    <t>16. Rotate Image</t>
+  </si>
+  <si>
+    <t>17. Group Anagrams</t>
+  </si>
+  <si>
+    <t>18. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>19. Spiral Matrix</t>
+  </si>
+  <si>
+    <t>20. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>21. Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>22. Sort Colors</t>
+  </si>
+  <si>
+    <t>23. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>24. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>25. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>26. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>27. Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>28. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>29. Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>30. Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>31. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>32. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>33. Clone Graph</t>
+  </si>
+  <si>
+    <t>34. Single Number</t>
+  </si>
+  <si>
+    <t>35. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>36. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>37. LRU Cache</t>
+  </si>
+  <si>
+    <t>38. Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>39. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>40. Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>41. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>42. Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>43. Reverse Words in a String II</t>
+  </si>
+  <si>
+    <t>44. Number of Islands</t>
+  </si>
+  <si>
+    <t>45. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>46. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>47. Word Search II</t>
+  </si>
+  <si>
+    <t>48. The Skyline Problem</t>
+  </si>
+  <si>
+    <t>49. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>50. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>51. Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>52. Integer to English Words</t>
+  </si>
+  <si>
+    <t>53. Find the Celebrity</t>
+  </si>
+  <si>
+    <t>54. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>55. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>56. Reverse String</t>
+  </si>
+  <si>
+    <t>57. Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>58. Serialize and Deserialize BST</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Main Data Structure</t>
+  </si>
+  <si>
+    <t>Supporting Data Structure</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Technique / Algoritham</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Iterative</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>N-Ary</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Back Tracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,13 +624,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,16 +691,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,392 +1029,1522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6563CF82-2BC9-4050-858A-01997BE557EB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" customWidth="1"/>
-    <col min="3" max="3" width="55.26953125" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" customWidth="1"/>
-    <col min="5" max="5" width="30.54296875" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="59.453125" customWidth="1"/>
-    <col min="8" max="8" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
+    <col min="8" max="8" width="59.453125" customWidth="1"/>
+    <col min="9" max="9" width="37.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
+      <c r="I15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAFDC4A-8E64-4267-A273-4387D527AC00}">
+  <dimension ref="A1:AB81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" t="s">
+        <v>165</v>
+      </c>
+      <c r="W2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="S7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" t="s">
+        <v>114</v>
+      </c>
+      <c r="W18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>114</v>
+      </c>
+      <c r="W20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="X22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="s">
+        <v>114</v>
+      </c>
+      <c r="W25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" t="s">
+        <v>114</v>
+      </c>
+      <c r="W26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>114</v>
+      </c>
+      <c r="R28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+      <c r="T31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="V42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="V43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A45" s="9">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56" s="9">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A58" s="9">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A59" s="9">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A60" s="9">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A61" s="9">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A63" s="9">
+        <v>59</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A65" s="9">
+        <v>61</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A66" s="9">
+        <v>62</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>63</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" t="s">
+        <v>114</v>
+      </c>
+      <c r="P67" t="s">
+        <v>114</v>
+      </c>
+      <c r="T67" t="s">
+        <v>114</v>
+      </c>
+      <c r="W67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="K68" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A69" s="9">
+        <v>65</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A72" s="9">
+        <v>68</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+      <c r="U74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
+        <v>71</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:AB2" xr:uid="{5AAFDC4A-8E64-4267-A273-4387D527AC00}"/>
+  <hyperlinks>
+    <hyperlink ref="B67" r:id="rId1" display="https://leetcode.com/problems/sort-list" xr:uid="{FBA7CCDF-9479-4CF6-A2F5-B0FF85897335}"/>
+    <hyperlink ref="B68" r:id="rId2" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{717824AF-5F86-45E0-A98F-60B42949C7D5}"/>
+    <hyperlink ref="B69" r:id="rId3" display="https://leetcode.com/problems/string-compression" xr:uid="{436245B7-6C38-466D-A507-6DB7403B918F}"/>
+    <hyperlink ref="B70" r:id="rId4" display="https://leetcode.com/problems/delete-node-in-a-bst" xr:uid="{CE486CE5-4F7E-42C2-8C8F-8914706C96E2}"/>
+    <hyperlink ref="B71" r:id="rId5" display="https://leetcode.com/problems/inorder-successor-in-bst-ii" xr:uid="{E54D4984-1713-4287-9DE0-2EA649EF0F03}"/>
+    <hyperlink ref="B72" r:id="rId6" display="https://leetcode.com/problems/remove-comments" xr:uid="{42F865D4-CB43-4C07-8B62-BCE09F83A55C}"/>
+    <hyperlink ref="B73" r:id="rId7" display="https://leetcode.com/problems/serialize-and-deserialize-n-ary-tree" xr:uid="{DC29DBE0-AD6E-4FE8-82D7-BA1033A6594A}"/>
+    <hyperlink ref="B74" r:id="rId8" display="https://leetcode.com/problems/all-paths-from-source-to-target" xr:uid="{C6D1D0F4-8E96-4DDD-B85E-8308A2ED9502}"/>
+    <hyperlink ref="B75" r:id="rId9" display="https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters" xr:uid="{8816A630-59CF-4E70-9995-F3EAF04882EF}"/>
+    <hyperlink ref="B4" r:id="rId10" display="https://leetcode.com/problems/two-sum" xr:uid="{5D0745FB-296F-4A9A-B23E-9E89CE993F92}"/>
+    <hyperlink ref="B5" r:id="rId11" display="https://leetcode.com/problems/add-two-numbers" xr:uid="{3DAC5022-8DDE-4DC0-A7B3-371D5BEE6A51}"/>
+    <hyperlink ref="B6" r:id="rId12" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{9D0F0015-CC66-4529-B23E-CE1FA36E17F5}"/>
+    <hyperlink ref="B7" r:id="rId13" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{A14DF7C7-1A53-42A4-93FC-C6734CF17BF0}"/>
+    <hyperlink ref="B8" r:id="rId14" display="https://leetcode.com/problems/string-to-integer-atoi" xr:uid="{EC5C1FC9-4D13-4856-876A-3D048E9E962B}"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{7B7A3B64-8141-40B1-9300-55CFE73370D4}"/>
+    <hyperlink ref="B10" r:id="rId16" display="https://leetcode.com/problems/roman-to-integer" xr:uid="{D17FB9D0-EC04-4612-8C49-88BE0266238F}"/>
+    <hyperlink ref="B11" r:id="rId17" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number" xr:uid="{2C410FDF-B28E-4722-ADAD-BC0FF152B320}"/>
+    <hyperlink ref="B12" r:id="rId18" display="https://leetcode.com/problems/valid-parentheses" xr:uid="{BD67BB46-51A1-495E-8B9C-CA1AB115B5C9}"/>
+    <hyperlink ref="B13" r:id="rId19" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{159295AA-C800-4DA6-B227-5C22E9704C69}"/>
+    <hyperlink ref="B14" r:id="rId20" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{F6BF61ED-4CE1-4DE5-BB23-4A6ACF32629A}"/>
+    <hyperlink ref="B15" r:id="rId21" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array" xr:uid="{E8474FC8-592E-4A40-B87C-961A86B3A593}"/>
+    <hyperlink ref="B16" r:id="rId22" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{71D3D1CC-F615-4199-A1C2-2C6154506ECC}"/>
+    <hyperlink ref="B17" r:id="rId23" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{B604B973-9A93-419F-8CAB-2C951649DD92}"/>
+    <hyperlink ref="B18" r:id="rId24" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{AF86D21F-83E8-43A2-8059-41FBB7C731CE}"/>
+    <hyperlink ref="B19" r:id="rId25" display="https://leetcode.com/problems/rotate-image" xr:uid="{1BA62F19-735B-41EE-B8F9-4523F63A6D4C}"/>
+    <hyperlink ref="B20" r:id="rId26" display="https://leetcode.com/problems/group-anagrams" xr:uid="{DD471CA7-3731-4B3C-BFAB-C9A832897A37}"/>
+    <hyperlink ref="B21" r:id="rId27" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{D676BC02-BE2C-4323-AEDA-C153D39E8DA5}"/>
+    <hyperlink ref="B22" r:id="rId28" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{2384C751-5432-442D-B6FF-583BD798A348}"/>
+    <hyperlink ref="B23" r:id="rId29" display="https://leetcode.com/problems/set-matrix-zeroes" xr:uid="{AE7D3D95-3BE4-4ADC-8227-99CFF74C1C75}"/>
+    <hyperlink ref="B24" r:id="rId30" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{9569698C-7070-4CA2-B680-49D0C00F3FF0}"/>
+    <hyperlink ref="B25" r:id="rId31" display="https://leetcode.com/problems/sort-colors" xr:uid="{AE0FF784-56FD-4F1E-8CDC-3A06D49DFBDB}"/>
+    <hyperlink ref="B26" r:id="rId32" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{AD439A18-992E-4CCB-BF5C-93ABAE9FA246}"/>
+    <hyperlink ref="B27" r:id="rId33" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{E300E918-FE49-4AAF-A699-6A12C3DD9664}"/>
+    <hyperlink ref="B28" r:id="rId34" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{A3EA8F16-E0C1-4EE2-B671-4D357CFA315E}"/>
+    <hyperlink ref="B29" r:id="rId35" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{706EC6AF-B060-4FB8-9D19-3ABD68F4702A}"/>
+    <hyperlink ref="B30" r:id="rId36" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{6C9DE154-2316-4707-A83D-321CCC8D3A03}"/>
+    <hyperlink ref="B31" r:id="rId37" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{5CDB2972-2CAB-4BD1-AF0C-745EAA3D9DEE}"/>
+    <hyperlink ref="B32" r:id="rId38" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{1C7361B1-DCBE-40F3-A0BF-B87B31E945D0}"/>
+    <hyperlink ref="B33" r:id="rId39" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{53C39F44-A44C-4453-830B-855ECA642032}"/>
+    <hyperlink ref="B34" r:id="rId40" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock" xr:uid="{88323EBE-968B-444F-B173-9586E1C33472}"/>
+    <hyperlink ref="B35" r:id="rId41" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{5FB3CB72-9FD4-4E62-8C6D-6B1470118D87}"/>
+    <hyperlink ref="B36" r:id="rId42" display="https://leetcode.com/problems/clone-graph" xr:uid="{A3978020-1A5B-437E-9C3B-0FCDA29CA4BF}"/>
+    <hyperlink ref="B37" r:id="rId43" display="https://leetcode.com/problems/single-number" xr:uid="{5FC870AA-B448-4E50-8929-E7EB91BDCB47}"/>
+    <hyperlink ref="B38" r:id="rId44" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{9BB473EC-EBA2-4E8D-AE0C-16C11BE10F66}"/>
+    <hyperlink ref="B39" r:id="rId45" display="https://leetcode.com/problems/linked-list-cycle" xr:uid="{6281C329-9D48-42A1-8E56-31FB1F8C4DDB}"/>
+    <hyperlink ref="B40" r:id="rId46" display="https://leetcode.com/problems/lru-cache" xr:uid="{5A9E9CBE-D11A-455D-80CF-5A9A907AE93B}"/>
+    <hyperlink ref="B41" r:id="rId47" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{2E0650B6-53B2-42FC-9B84-DE00E5474B6C}"/>
+    <hyperlink ref="B42" r:id="rId48" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{251399F5-C9ED-4FC0-AE7D-96603B8D5599}"/>
+    <hyperlink ref="B43" r:id="rId49" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{337F620E-FB18-4DD3-9EBB-40722F52A34A}"/>
+    <hyperlink ref="B44" r:id="rId50" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{94A80A6B-8F13-418F-9B95-6DAC276CD7C6}"/>
+    <hyperlink ref="B45" r:id="rId51" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{24933AE7-9B79-48CC-8510-142EFE1AD56C}"/>
+    <hyperlink ref="B46" r:id="rId52" display="https://leetcode.com/problems/reverse-words-in-a-string-ii" xr:uid="{69DD9EB7-57CA-4DD7-A176-F207AD5B01F1}"/>
+    <hyperlink ref="B47" r:id="rId53" display="https://leetcode.com/problems/number-of-islands" xr:uid="{16B7B5A3-A7ED-41F4-98C6-5C527CB8DF70}"/>
+    <hyperlink ref="B48" r:id="rId54" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{EF0FD6F8-AB26-48D8-865D-C7B038FC7259}"/>
+    <hyperlink ref="B49" r:id="rId55" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{87576A20-EFE5-4C44-BA02-241401423820}"/>
+    <hyperlink ref="B50" r:id="rId56" display="https://leetcode.com/problems/word-search-ii" xr:uid="{7C6AFB02-B33D-4D64-B811-B51EF0676B5A}"/>
+    <hyperlink ref="B51" r:id="rId57" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{1A0A6708-CB7E-47E5-BBB3-F65DCE323D8D}"/>
+    <hyperlink ref="B52" r:id="rId58" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree" xr:uid="{BD73D54D-8AB8-4CA8-90CA-AAE7428F4075}"/>
+    <hyperlink ref="B53" r:id="rId59" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{14DA9A65-0EA1-4CE3-99DD-F485EFA01D2B}"/>
+    <hyperlink ref="B54" r:id="rId60" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{416641BB-F308-4181-A4B2-AA334E50F0E3}"/>
+    <hyperlink ref="B55" r:id="rId61" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{1EBE7078-835D-46BC-91E2-BCA3BFDB10EE}"/>
+    <hyperlink ref="B56" r:id="rId62" display="https://leetcode.com/problems/find-the-celebrity" xr:uid="{F9092EC3-03A8-4221-A30A-5466810EEB67}"/>
+    <hyperlink ref="B57" r:id="rId63" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{59136BA8-090A-41CB-B0D6-A994854BF6A1}"/>
+    <hyperlink ref="B58" r:id="rId64" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{FFB4AE16-07BA-499A-806D-37B3DCC8D6B3}"/>
+    <hyperlink ref="B59" r:id="rId65" display="https://leetcode.com/problems/reverse-string" xr:uid="{248A059D-BB54-4C3C-8848-57F49E5BB35D}"/>
+    <hyperlink ref="B60" r:id="rId66" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{B7A39B2B-A620-4ADE-A76F-3B177A8E81B9}"/>
+    <hyperlink ref="B61" r:id="rId67" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{0FE22C24-FC6B-4F99-B8A8-C1822A5D31E4}"/>
+    <hyperlink ref="B66" r:id="rId68" display="https://leetcode.com/problems/word-search" xr:uid="{07B18A13-D9C5-4AAF-BDEF-144FCDD6B38D}"/>
+    <hyperlink ref="B65" r:id="rId69" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{9C666E4A-DF58-46DB-B7B4-195C4D4B0616}"/>
+    <hyperlink ref="B64" r:id="rId70" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{F7C8E7F7-DC89-4D6F-9896-F124B49560F7}"/>
+    <hyperlink ref="B63" r:id="rId71" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{43EC9A98-D437-4A64-A7EA-45E9AA0A42E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId72"/>
+</worksheet>
 </file>